--- a/2000_Furusawa/data/processed/C135.xlsx
+++ b/2000_Furusawa/data/processed/C135.xlsx
@@ -39,7 +39,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -60,6 +60,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,7 +131,1705 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>132.8844</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122.2042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.0613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.4247</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.16607</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.46112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.47808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.95286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.40384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.42125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.77508</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48.59013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41.53314</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.30799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.70433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.39615</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.185</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.88371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.585214</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.973735</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.37553</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LETd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>214.9421</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226.5048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.0602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247.9911</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>266.0595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>271.9799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>289.2703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305.7688</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>333.6253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>357.9308</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>405.968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>439.5464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>495.4836</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>644.5202</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>825.7101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1027.109</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1327.464</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1662.046</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2352.59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3163.809</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3749.928</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.634</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="61959552"/>
+        <c:axId val="4567600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61959552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4567600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="4567600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61959552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85680</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6517800" y="1004400"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -134,10 +1837,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -323,23 +2026,67 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>13.185</v>
+        <v>18.39615</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1327.464</v>
+        <v>1027.109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>13.185</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1327.464</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>3.616</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>10.88371</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1662.046</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>3.634</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>7.585214</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2352.59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>5.973735</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>3163.809</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>3.65</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B22" s="2" t="n">
         <v>4.37553</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C22" s="2" t="n">
         <v>3749.928</v>
       </c>
     </row>
@@ -351,5 +2098,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>